--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/210794.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/210794.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,23 +2264,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2309,17 +2309,17 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2385,29 +2385,29 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,17 +2436,17 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,68 +2645,68 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -2784,62 +2784,62 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2893,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2911,62 +2911,62 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>2</v>
       </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3038,68 +3038,68 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -3153,80 +3153,80 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3298,28 +3298,28 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3419,34 +3419,34 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3558,28 +3558,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3679,34 +3679,34 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3730,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,28 +4078,28 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>1</v>
@@ -4211,28 +4211,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29" s="2" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="2" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="2" t="n">
         <v>0</v>
@@ -4271,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -4338,28 +4338,28 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -4374,22 +4374,22 @@
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
         <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>1</v>
@@ -4471,31 +4471,31 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2" t="n">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="2" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="2" t="n">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4574,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -4598,31 +4598,31 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>1</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>1</v>
@@ -4731,31 +4731,31 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
         <v>0</v>
@@ -4767,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="2" t="n">
         <v>0</v>
@@ -4791,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -4858,31 +4858,31 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -4918,16 +4918,16 @@
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -4991,31 +4991,31 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="2" t="n">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="n">
         <v>0</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ35" s="2" t="n">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5088,13 +5088,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -5118,31 +5118,31 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5154,31 +5154,31 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5221,22 +5221,22 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5251,31 +5251,31 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="2" t="n">
         <v>0</v>
@@ -5287,22 +5287,22 @@
         <v>1</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="2" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ37" s="2" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -5372,37 +5372,37 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5414,22 +5414,22 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
         <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ38" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5481,22 +5481,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,37 +5508,37 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5547,22 +5547,22 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="2" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="2" t="n">
         <v>1</v>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5608,64 +5608,64 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
         <v>2</v>
       </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5674,22 +5674,22 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ40" t="n">
         <v>1</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5741,22 +5741,22 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5771,34 +5771,34 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5813,16 +5813,16 @@
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="2" t="n">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ41" s="2" t="n">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5868,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -5898,34 +5898,34 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -5940,25 +5940,25 @@
         <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
         <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ42" t="n">
         <v>1</v>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -6001,22 +6001,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6028,37 +6028,37 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6073,16 +6073,16 @@
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2" t="n">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ43" s="2" t="n">
         <v>1</v>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6128,22 +6128,22 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -6155,37 +6155,37 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6200,16 +6200,16 @@
         <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ44" t="n">
         <v>1</v>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6261,22 +6261,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6291,58 +6291,58 @@
         <v>2</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="2" t="n">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ45" s="2" t="n">
         <v>1</v>
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6388,22 +6388,22 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -6418,34 +6418,34 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -6454,31 +6454,31 @@
         <v>1</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB46" t="n">
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
         <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ46" t="n">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6521,22 +6521,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6548,61 +6548,61 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ47" s="2" t="n">
         <v>1</v>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6648,22 +6648,22 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -6675,37 +6675,37 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
         <v>2</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -6714,22 +6714,22 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" t="n">
         <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ48" t="n">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6781,22 +6781,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6808,61 +6808,61 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2" t="n">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ49" s="2" t="n">
         <v>1</v>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6935,70 +6935,70 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
         <v>2</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>3</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>1</v>
-      </c>
       <c r="AB50" t="n">
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG50" t="n">
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ50" t="n">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7041,22 +7041,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,61 +7068,61 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="2" t="n">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ51" s="2" t="n">
         <v>1</v>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7162,28 +7162,28 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -7195,79 +7195,79 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" t="n">
         <v>2</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1</v>
-      </c>
       <c r="AB52" t="n">
         <v>1</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG52" t="n">
         <v>1</v>
       </c>
       <c r="AH52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" t="n">
         <v>1</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7301,22 +7301,22 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7331,34 +7331,34 @@
         <v>3</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2" t="n">
         <v>0</v>
@@ -7367,22 +7367,22 @@
         <v>1</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="2" t="n">
         <v>1</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ53" s="2" t="n">
         <v>1</v>
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7428,64 +7428,64 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
         <v>2</v>
       </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" t="n">
-        <v>3</v>
-      </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -7494,22 +7494,22 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB54" t="n">
         <v>1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>1</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ54" t="n">
         <v>1</v>
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="AL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="3" t="inlineStr">
         <is>
@@ -7561,22 +7561,22 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7591,34 +7591,34 @@
         <v>3</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V55" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2" t="n">
         <v>0</v>
@@ -7627,22 +7627,22 @@
         <v>1</v>
       </c>
       <c r="AA55" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="2" t="n">
         <v>1</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ55" s="2" t="n">
         <v>1</v>
@@ -7688,22 +7688,22 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -7712,40 +7712,40 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -7754,22 +7754,22 @@
         <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB56" t="n">
         <v>1</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
         <v>1</v>
       </c>
       <c r="AF56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
         <v>1</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ56" t="n">
         <v>1</v>
@@ -7821,22 +7821,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7851,13 +7851,13 @@
         <v>3</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
@@ -7866,19 +7866,19 @@
         <v>1</v>
       </c>
       <c r="T57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="2" t="n">
         <v>0</v>
@@ -7887,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="AA57" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ57" s="2" t="n">
         <v>1</v>
@@ -7948,22 +7948,22 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -7978,13 +7978,13 @@
         <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -7993,19 +7993,19 @@
         <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
@@ -8014,22 +8014,22 @@
         <v>1</v>
       </c>
       <c r="AA58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB58" t="n">
         <v>1</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
       </c>
       <c r="AE58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG58" t="n">
         <v>1</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="AI58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ58" t="n">
         <v>1</v>
@@ -8081,22 +8081,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -8126,19 +8126,19 @@
         <v>1</v>
       </c>
       <c r="T59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y59" s="2" t="n">
         <v>0</v>
@@ -8147,22 +8147,22 @@
         <v>1</v>
       </c>
       <c r="AA59" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="2" t="n">
         <v>1</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ59" s="2" t="n">
         <v>1</v>
@@ -8208,28 +8208,28 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8253,19 +8253,19 @@
         <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
@@ -8274,31 +8274,31 @@
         <v>1</v>
       </c>
       <c r="AA60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB60" t="n">
         <v>1</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
         <v>1</v>
       </c>
       <c r="AF60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
         <v>1</v>
       </c>
       <c r="AH60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ60" t="n">
         <v>1</v>
@@ -8314,9 +8314,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="AN60" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>1</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
@@ -8386,43 +8386,43 @@
         <v>1</v>
       </c>
       <c r="T61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AA61" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="2" t="n">
         <v>1</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ61" s="2" t="n">
         <v>1</v>
@@ -8468,10 +8468,10 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -8480,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8513,34 +8513,34 @@
         <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB62" t="n">
         <v>1</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -8549,16 +8549,16 @@
         <v>1</v>
       </c>
       <c r="AF62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
         <v>1</v>
       </c>
       <c r="AH62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ62" t="n">
         <v>1</v>
@@ -8601,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8637,37 +8637,37 @@
         <v>0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AA63" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB63" s="2" t="n">
         <v>1</v>
@@ -8676,13 +8676,13 @@
         <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF63" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="2" t="n">
         <v>1</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ63" s="2" t="n">
         <v>1</v>
@@ -8728,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>3</v>
@@ -8764,37 +8764,37 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
         <v>1</v>
       </c>
       <c r="AA64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB64" t="n">
         <v>1</v>
@@ -8809,16 +8809,16 @@
         <v>1</v>
       </c>
       <c r="AF64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="n">
         <v>1</v>
       </c>
       <c r="AH64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ64" t="n">
         <v>1</v>
@@ -8876,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1</v>
@@ -8897,37 +8897,37 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V65" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AA65" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB65" s="2" t="n">
         <v>1</v>
@@ -8936,13 +8936,13 @@
         <v>1</v>
       </c>
       <c r="AD65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF65" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="2" t="n">
         <v>1</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ65" s="2" t="n">
         <v>1</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>3</v>
@@ -9024,37 +9024,37 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
         <v>1</v>
       </c>
       <c r="AA66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB66" t="n">
         <v>1</v>
@@ -9069,16 +9069,16 @@
         <v>1</v>
       </c>
       <c r="AF66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
         <v>1</v>
       </c>
       <c r="AH66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ66" t="n">
         <v>1</v>
